--- a/medicine/Sexualité et sexologie/Juste_Charity/Juste_Charity.xlsx
+++ b/medicine/Sexualité et sexologie/Juste_Charity/Juste_Charity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juste Charity est un documentaire français de Floriane Devigne, sorti en 2023 produit par Estelle Robin-You et Point du jour.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune femme originaire de Benin city, au Nigeria, assiste à l'assassinat de sa mère en 2014. Alors qu'elle n'a que 24 ans, elle décide de fuir son pays avec l'aide d'un passeur ; dès son arrivée en France elle est contrainte de lui rembourser la somme de 35 000 euros. Il l'oblige à se prostituer dans les rues de Nantes. Avec l'aide de son avocate Anne Bouillon, elle entame une procédure judiciaire afin de dénoncer son réseau de proxénète.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Floriane Devigne
 Scénario : Floriane Devigne
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charity Jimohe : elle-même
 Anne Bouillon : elle-même</t>
